--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -153,19 +149,69 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>ApplicationURL</t>
   </si>
   <si>
-    <t>https://www.riddles.com/brain-teasers</t>
-  </si>
-  <si>
-    <t>ExtractUrl</t>
-  </si>
-  <si>
-    <t>https://www.riddles.com/brain-teasers?page=</t>
+    <t>TamilRiddlesAnswer</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName1</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName2</t>
+  </si>
+  <si>
+    <t>TamilRiddlesQuestion</t>
+  </si>
+  <si>
+    <t>https://tamilsolution.com/300-rare-riddles-in-tamil-%E0%AE%B5%E0%AE%BF%E0%AE%9F%E0%AF%81%E0%AE%95%E0%AE%A4%E0%AF%88%E0%AE%AF%E0%AF%81%E0%AE%AE%E0%AF%8D-%E0%AE%B5%E0%AE%BF%E0%AE%9F%E0%AF%88%E0%AE%95%E0%AE%B3%E0%AF%81%E0%AE%AE/</t>
+  </si>
+  <si>
+    <t>TimeforTrigger</t>
+  </si>
+  <si>
+    <t>Toaddress</t>
+  </si>
+  <si>
+    <t>Riddles For Friday</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Portnumber</t>
+  </si>
+  <si>
+    <t>smtpserver</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Email Credentials</t>
+  </si>
+  <si>
+    <t>HTMLbody</t>
+  </si>
+  <si>
+    <t>TimeEvening</t>
+  </si>
+  <si>
+    <t>sankaravenie5@gmail.com;sathyamoorthie5@gmail.com;sharongiftae5@gmail.com;aartiak.e5@gmail.com;sornalakshmie5@gmail.com;narenbagavathye5@gmail.com;prasanth9534@gmail.com</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;body&gt;
+&lt;p&gt;Hi Team &lt;/p&gt;&lt;/br&gt;
+&lt;p&gt;Interesting Tamil Riddles For Friday &lt;/p&gt;&lt;/br&gt;
+&lt;h3 style='color:blue;text-align:center'&gt;{0}&lt;/h3&gt;&lt;/br&gt;
+&lt;p&gt;Thanks and Regards&lt;/p&gt;&lt;/br&gt;
+&lt;p&gt;Smartbots Team&lt;/p&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -227,7 +273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -239,6 +285,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -604,10 +656,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -615,22 +667,22 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="117.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
+    <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -642,23 +694,86 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="119.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="251.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1645,10 +1760,9 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1657,7 +1771,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1710,18 +1824,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1745,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1767,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1778,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1789,53 +1903,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2839,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450"/>
@@ -200,9 +200,6 @@
     <t>TimeEvening</t>
   </si>
   <si>
-    <t>sankaravenie5@gmail.com;sathyamoorthie5@gmail.com;sharongiftae5@gmail.com;aartiak.e5@gmail.com;sornalakshmie5@gmail.com;narenbagavathye5@gmail.com;prasanth9534@gmail.com</t>
-  </si>
-  <si>
     <t>&lt;html&gt;
 &lt;body&gt;
 &lt;p&gt;Hi Team &lt;/p&gt;&lt;/br&gt;
@@ -213,11 +210,14 @@
 &lt;/body&gt;
 &lt;/html&gt;</t>
   </si>
+  <si>
+    <t>sankaravenie5@gmail.com;sathyamoorthie5@gmail.com;sharongiftae5@gmail.com;aartiak.e5@gmail.com;sornalakshmie5@gmail.com;narenbagavathye5@gmail.com;prasanth9534@gmail.com; lakshmi.u@tiliconveli.com;naresh.kumar@e5.ai</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -605,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -718,7 +718,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -763,7 +763,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1767,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
